--- a/win10+lan_en.xlsx
+++ b/win10+lan_en.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADCC3A7-747C-41DB-8AB6-AB0EB3E59598}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D96660-6A70-42F7-9E5A-34E586D9EA20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="ch0" sheetId="9" r:id="rId2"/>
     <sheet name="ch1" sheetId="3" r:id="rId3"/>
-    <sheet name="ch2" sheetId="5" r:id="rId4"/>
-    <sheet name="ch3" sheetId="6" r:id="rId5"/>
-    <sheet name="ch4" sheetId="4" r:id="rId6"/>
-    <sheet name="ch5" sheetId="7" r:id="rId7"/>
+    <sheet name="ch2" sheetId="6" r:id="rId4"/>
+    <sheet name="ch3" sheetId="4" r:id="rId5"/>
+    <sheet name="ch4" sheetId="7" r:id="rId6"/>
+    <sheet name="ch5" sheetId="5" r:id="rId7"/>
     <sheet name="ch6" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -32,9 +32,6 @@
     <t>header1</t>
   </si>
   <si>
-    <t>Startup Workshop for your Laptop, Hiroshima University</t>
-  </si>
-  <si>
     <t>template</t>
   </si>
   <si>
@@ -472,14 +469,6 @@
   <si>
     <t>You can connect to Wi-Fi called &amp;quot;HINET Wi-Fi&amp;quot; in shared facilities in Hiroshima University campus. Here you will set up your PC to connect to the internal network and the internet via Wi-Fi. As far as you connect to the same access point, you do not need to do this again.
 This map shows which &amp;quot;HU-CUPxx&amp;quot; you may find in the campus.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">First of all, you need to remember that there are two IDs to use information services provided by Hiroshima University. These IDs are based on student number.
-One of them is called HIRODAI ID, which looks same to student number. The other is &amp;quot;IMC account&amp;quot;, which looks little bit different from student number. The first letter of student number is capital, whereas that of &amp;quot;IMC account&amp;quot; is in lowercase.
-Both IDs share password. It is called &amp;quot;HIRODAI password&amp;quot;. You will know it when you get your ID card.
-Adding &amp;quot;@hiroshima-u.ac.jp&amp;quot; behind your &amp;quot;IMC account&amp;quot;, you will get your email address as a student in Hiroshima University. The email address is called &amp;quot;HIRODAI mail address&amp;quot;. Teachers or staffs in Hiroshima University may send emails to the email address. Check your email box frequently. You will learn how to check it in Chapter 5.
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -813,14 +802,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;Windows10&lt;/h3&gt;
-Mar. 2021&lt;br&gt;
- Information Media Center, Hiroshima University&lt;br&gt;
- Hiroshima Univesity Coop shop 
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Win10 chap.0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1020,6 +1001,25 @@
     <t xml:space="preserve">Let us go back to MOMIJI top page again. This time, click &amp;quot;Bb9&amp;quot; banner.
 Bb9 is the name of learning management system in Hiroshima University. You may view course materials, answer tests, or submit assignments on Bb9.
 (The application to use Bb9 from the mobile device is now being prepared for the release after late April)  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;Windows10 with the Internetworking at your home&lt;/h3&gt;
+Mar. 2021&lt;br&gt;
+ Information Media Center, Hiroshima University&lt;br&gt;
+ Hiroshima Univesity Coop shop 
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>First of all, you need to remember that there are two IDs to use information services provided by Hiroshima University. These IDs are based on student number.
+One of them is called HIRODAI ID, which looks same to student number. The other is &amp;quot;IMC account&amp;quot;, which looks little bit different from student number. The first letter of student number is capital, whereas that of &amp;quot;IMC account&amp;quot; is in lowercase.
+Both IDs share password. It is called &amp;quot;HIRODAI password&amp;quot;. You will know it when you get your ID card.
+Adding &amp;quot;@hiroshima-u.ac.jp&amp;quot; behind your &amp;quot;IMC account&amp;quot;, you will get your email address as a student in Hiroshima University. The email address is called &amp;quot;HIRODAI mail address&amp;quot;. Teachers or staffs in Hiroshima University may send emails to the email address. Check your email box frequently.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Startup Workshop for your Laptop, for the students with the Internetworking at your home, Hiroshima University</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1418,7 +1418,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1434,51 +1434,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0FC8B8-3740-45D4-A5FA-75052BCDA48C}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1507,10 +1507,10 @@
   <sheetData>
     <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1518,260 +1518,260 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s" ph="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s" ph="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" ph="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" ph="1"/>
       <c r="C6" t="s" ph="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s" ph="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s" ph="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" t="s" ph="1">
-        <v>5</v>
-      </c>
       <c r="D7" t="s" ph="1">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" t="s" ph="1">
-        <v>5</v>
-      </c>
       <c r="D8" t="s" ph="1">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" t="s" ph="1">
-        <v>5</v>
-      </c>
       <c r="D9" t="s" ph="1">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s" ph="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" t="s" ph="1">
-        <v>5</v>
-      </c>
       <c r="D11" t="s" ph="1">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s" ph="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s" ph="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" t="s" ph="1">
-        <v>5</v>
-      </c>
       <c r="D13" t="s" ph="1">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s" ph="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" t="s" ph="1">
-        <v>5</v>
-      </c>
       <c r="D15" t="s" ph="1">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s" ph="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" t="s" ph="1">
-        <v>5</v>
-      </c>
       <c r="D16" t="s" ph="1">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s" ph="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" t="s" ph="1">
-        <v>5</v>
-      </c>
       <c r="D17" t="s" ph="1">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s" ph="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" t="s" ph="1">
-        <v>5</v>
-      </c>
       <c r="D19" t="s" ph="1">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s" ph="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" t="s" ph="1">
-        <v>5</v>
-      </c>
       <c r="D20" t="s" ph="1">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s" ph="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" t="s" ph="1">
-        <v>5</v>
-      </c>
       <c r="D22" t="s" ph="1">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s" ph="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" t="s" ph="1">
-        <v>5</v>
-      </c>
       <c r="D23" t="s" ph="1">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s" ph="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" t="s" ph="1">
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" t="s" ph="1">
-        <v>5</v>
-      </c>
       <c r="D24" t="s" ph="1">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1799,10 +1799,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1810,93 +1810,93 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1907,11 +1907,244 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1924,10 +2157,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1935,386 +2168,224 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
         <v>98</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
+    </row>
+    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2325,11 +2396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2342,10 +2413,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2353,224 +2424,512 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" t="s" ph="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>127</v>
+      <c r="D44" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2581,11 +2940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2598,10 +2957,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2609,518 +2968,159 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D43" t="s" ph="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3128,7 +3128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3145,75 +3145,75 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="264" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/win10+lan_en.xlsx
+++ b/win10+lan_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D96660-6A70-42F7-9E5A-34E586D9EA20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB3FF68-4F27-4A76-9721-530F1DE855EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="222">
   <si>
     <t>header1</t>
   </si>
@@ -1020,6 +1020,10 @@
   </si>
   <si>
     <t>Startup Workshop for your Laptop, for the students with the Internetworking at your home, Hiroshima University</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;strong&gt;The procedure in this chapter should be operated in the campus of Hiroshima University (and where HU-CUP WiFi stations). Please process the configuration when you bring your laptop to the campus.&lt;/strong&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2941,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2989,91 +2993,82 @@
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3081,40 +3076,54 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3128,7 +3137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/win10+lan_en.xlsx
+++ b/win10+lan_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB3FF68-4F27-4A76-9721-530F1DE855EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AC2D4B-00F7-4FB9-8958-54DED6E5F768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,7 +1023,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;strong&gt;The procedure in this chapter should be operated in the campus of Hiroshima University (and where HU-CUP WiFi stations). Please process the configuration when you bring your laptop to the campus.&lt;/strong&gt;</t>
+    <t>&lt;strong&gt;The procedure in this chapter should be operated in the campus of Hiroshima University (and where HU-CUP WiFi stations are accessible). Please process the configuration when you bring your laptop to the campus.&lt;/strong&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>

--- a/win10+lan_en.xlsx
+++ b/win10+lan_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AC2D4B-00F7-4FB9-8958-54DED6E5F768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB62234F-58F7-4422-B0C2-CEFA7D3F052A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="223">
   <si>
     <t>header1</t>
   </si>
@@ -1024,6 +1024,10 @@
   </si>
   <si>
     <t>&lt;strong&gt;The procedure in this chapter should be operated in the campus of Hiroshima University (and where HU-CUP WiFi stations are accessible). Please process the configuration when you bring your laptop to the campus.&lt;/strong&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The procedures described in this and later chapters require the Internetworking environment, please connect your computer to the network. If you don't have the network, please refer the text for the environment without the Internetworking.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1912,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1958,37 +1962,28 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -1996,13 +1991,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2010,102 +2005,102 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -2113,26 +2108,40 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2147,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2947,7 +2956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/win10+lan_en.xlsx
+++ b/win10+lan_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB62234F-58F7-4422-B0C2-CEFA7D3F052A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288B1A48-61AF-499B-B76A-75E24E627B6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,6 @@
     <t>win10-1-02.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">Next, Check HDD/SDD capacity of your PC. Read and write speed of HDD, Hard Disk Drive, or SSD, Solid State Drive are not as fast as those of RAM. But their capacity is larger than that of RAM. And they can keep data after shutting down your PC.
-Click the File Explorer icon in the taskbar. Then click &amp;quot;This PC&amp;quot; in the left side of the window, 
-HDD/SSD capacity will be displayed with the label &amp;quot;Local Disk (C:)&amp;quot;.
-  </t>
-  </si>
-  <si>
     <t>win10-1-03.svg</t>
   </si>
   <si>
@@ -362,16 +356,6 @@
 &amp;quot;System type&amp;quot; entry under &amp;quot;Device Specifications&amp;quot; tells you that your PC is running &amp;quot;64-bit operating system&amp;quot;. It means your OS can handle 64-binary-digit data.&lt;span class="check"&gt;check-2&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 &amp;quot;Installed RAM&amp;quot; entry tells you the capacity of the main memory in your PC. The larger the size of RAM your PC have, the more data your PC can store or the greater multi-tasking ability your PC gets.
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the battery run time, here.
- Click the battery icon in the taskbar, the battery level and estimated remaining time will be shown. The remaining battery time charged at 100% can be the estimated run time of your battery.
- For example, in the case that it says the battery level is 80% and the remaining time will be 6 hours, your can estimate the run time of your battery as 7.5 hours because 6 devided by 0.8 is 7.5.) 
-&lt;div class="spl"&gt;* You can find the remaining time on a while after system startup and the system usage has become stable. 
-If you do not see it after trying a few times, check the specifications in the catalog etc. and fill it out.
- &lt;/div&gt;
   </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1028,6 +1012,23 @@
   </si>
   <si>
     <t>The procedures described in this and later chapters require the Internetworking environment, please connect your computer to the network. If you don't have the network, please refer the text for the environment without the Internetworking.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Next, Check HDD/SSD capacity of your PC. Read and write speed of HDD, Hard Disk Drive, or SSD, Solid State Drive are not as fast as those of RAM. But their capacity is larger than that of RAM. And they can keep data after shutting down your PC.
+Click the File Explorer icon in the taskbar. Then click &amp;quot;This PC&amp;quot; in the left side of the window, 
+HDD/SSD capacity will be displayed with the label &amp;quot;Local Disk (C:)&amp;quot;.
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the battery run time, here.
+ Click the battery icon in the taskbar, the battery level and estimated remaining time will be shown. The remaining battery time charged at 100% can be the estimated run time of your battery.
+ For example, in the case that it says the battery level is 80% and the remaining time will be 6 hours, your can estimate the run time of your battery as 7.5 hours because 6 devided by 0.8 is 7.5.) 
+&lt;div class="spl"&gt;* You can find the remaining time on a while after system startup and the system usage has become stable. 
+If you do not see it after trying a few times, check the specifications in the catalog etc. and fill it out.
+ &lt;/div&gt;
+The following procedure could be operated under the Internetworking environment.  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1442,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1450,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1458,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1466,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1480,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1518,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1526,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1534,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1542,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1562,13 +1563,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1576,13 +1577,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1590,21 +1591,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1612,24 +1613,24 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1637,21 +1638,21 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1659,13 +1660,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1673,13 +1674,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1687,21 +1688,21 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1709,13 +1710,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1723,21 +1724,21 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1745,13 +1746,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" ph="1" x14ac:dyDescent="0.2">
@@ -1759,13 +1760,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1773,13 +1774,13 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1793,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1810,7 +1811,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1826,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1834,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1842,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1856,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1870,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -1884,13 +1885,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -1898,13 +1899,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +1936,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1951,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1959,12 +1960,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1972,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1983,7 +1984,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -1991,13 +1992,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2005,13 +2006,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2019,13 +2020,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -2033,13 +2034,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2047,18 +2048,18 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2066,13 +2067,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2080,13 +2081,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -2094,13 +2095,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -2108,13 +2109,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -2122,13 +2123,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2136,13 +2137,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +2157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -2173,7 +2174,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2181,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2189,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2197,7 +2198,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2205,7 +2206,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -2216,7 +2217,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -2224,18 +2225,18 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2243,37 +2244,37 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2281,13 +2282,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2295,18 +2296,18 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
         <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2314,21 +2315,21 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2336,13 +2337,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2350,13 +2351,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2364,13 +2365,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2378,13 +2379,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2392,13 +2393,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2429,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2437,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2445,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2453,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -2461,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -2472,7 +2473,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2494,13 +2495,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2508,18 +2509,18 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2541,13 +2542,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2555,13 +2556,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2569,13 +2570,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2583,13 +2584,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2597,13 +2598,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -2611,13 +2612,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2625,13 +2626,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2639,18 +2640,18 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2672,13 +2673,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2686,13 +2687,13 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2700,18 +2701,18 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2733,13 +2734,13 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2747,13 +2748,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -2761,13 +2762,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
         <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2775,13 +2776,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2789,13 +2790,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -2803,13 +2804,13 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2817,13 +2818,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2831,13 +2832,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2845,13 +2846,13 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2859,26 +2860,26 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2886,7 +2887,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -2900,13 +2901,13 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2914,21 +2915,21 @@
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2936,13 +2937,13 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2973,7 +2974,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2981,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2989,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2997,17 +2998,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3015,13 +3016,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -3029,13 +3030,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -3043,13 +3044,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3057,13 +3058,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -3071,13 +3072,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3085,13 +3086,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -3099,21 +3100,21 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -3127,13 +3128,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3171,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3179,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3187,7 +3188,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -3198,7 +3199,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -3206,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -3217,7 +3218,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -3225,7 +3226,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>

--- a/win10+lan_en.xlsx
+++ b/win10+lan_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288B1A48-61AF-499B-B76A-75E24E627B6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B5D283-370D-4324-957C-2EC204F4E5CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -982,12 +982,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Let us go back to MOMIJI top page again. This time, click &amp;quot;Bb9&amp;quot; banner.
-Bb9 is the name of learning management system in Hiroshima University. You may view course materials, answer tests, or submit assignments on Bb9.
-(The application to use Bb9 from the mobile device is now being prepared for the release after late April)  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;h3&gt;Windows10 with the Internetworking at your home&lt;/h3&gt;
 Mar. 2021&lt;br&gt;
  Information Media Center, Hiroshima University&lt;br&gt;
@@ -1029,6 +1023,12 @@
 If you do not see it after trying a few times, check the specifications in the catalog etc. and fill it out.
  &lt;/div&gt;
 The following procedure could be operated under the Internetworking environment.  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;strong&gt;Following procedue should be executed after April 2nd&lt;/strong&gt; Let us go back to MOMIJI top page again. This time, click &amp;quot;Bb9&amp;quot; banner.
+Bb9 is the name of learning management system in Hiroshima University. You may view course materials, answer tests, or submit assignments on Bb9.
+(The application to use Bb9 from the mobile device is now being prepared for the release after late April)  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1794,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1885,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -1899,7 +1899,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2413,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2729,12 +2729,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3030,7 +3030,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>

--- a/win10+lan_en.xlsx
+++ b/win10+lan_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B5D283-370D-4324-957C-2EC204F4E5CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844EB252-9DA0-495D-AD70-162307E33C90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1005,10 +1005,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The procedures described in this and later chapters require the Internetworking environment, please connect your computer to the network. If you don't have the network, please refer the text for the environment without the Internetworking.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Next, Check HDD/SSD capacity of your PC. Read and write speed of HDD, Hard Disk Drive, or SSD, Solid State Drive are not as fast as those of RAM. But their capacity is larger than that of RAM. And they can keep data after shutting down your PC.
 Click the File Explorer icon in the taskbar. Then click &amp;quot;This PC&amp;quot; in the left side of the window, 
 HDD/SSD capacity will be displayed with the label &amp;quot;Local Disk (C:)&amp;quot;.
@@ -1029,6 +1025,10 @@
     <t xml:space="preserve">&lt;strong&gt;Following procedue should be executed after April 2nd&lt;/strong&gt; Let us go back to MOMIJI top page again. This time, click &amp;quot;Bb9&amp;quot; banner.
 Bb9 is the name of learning management system in Hiroshima University. You may view course materials, answer tests, or submit assignments on Bb9.
 (The application to use Bb9 from the mobile device is now being prepared for the release after late April)  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The procedures described in this and later chapters require the Internetworking environment, please connect your computer to the network. If you don't have the network, please refer the text for the environment without the Internetworking. The procesure in below should be operated after April 2nd, the day all related services are enabled.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1794,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1885,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -1899,7 +1899,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -1919,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2413,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B28" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2734,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>

--- a/win10+lan_en.xlsx
+++ b/win10+lan_en.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_04\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844EB252-9DA0-495D-AD70-162307E33C90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8DD3BA-153B-4D94-AF36-84A259CFB9A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -596,28 +596,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
-&lt;dl&gt;&lt;dt&gt;At IMC: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&amp;ast; Startup workshop (Apr.4-8, for detail, see below URL)&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
-&lt;dd&gt;&amp;ast; Special QA Support (Apr.4 12:30-15:30, Apr.5 9:00-17:00)&lt;/dd&gt;
-&lt;dd&gt;IMC main building&lt;/dd&gt;
-&lt;dd&gt;&amp;ast; Support Desks (9:00-16:30 Weekday)&lt;/dd&gt;
-&lt;dd&gt;IMC main building, IMC east branch in East Library, IMC service desk in West Library and Central Library, IMC Kasumi branch&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;Access map&lt;/a&gt;&lt;/dd&gt;
-&lt;dt&gt;Online: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
-&lt;/dd&gt;
-&lt;dt&gt;Mail: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
-&lt;/dd&gt; &lt;/dl&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Choose your language to use in your PC. You may choose &amp;quot;English&amp;quot;.
 Click &amp;quot;Yes&amp;quot;.
   </t>
@@ -1029,6 +1007,28 @@
   </si>
   <si>
     <t>The procedures described in this and later chapters require the Internetworking environment, please connect your computer to the network. If you don't have the network, please refer the text for the environment without the Internetworking. The procesure in below should be operated after April 2nd, the day all related services are enabled.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
+&lt;dl&gt;&lt;dt&gt;At IMC: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&amp;ast; Startup workshop (Apr.5-7, for detail, see below URL)&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
+&lt;dd&gt;&amp;ast; Special QA Support (Apr.5-7 9:00-17:00)&lt;/dd&gt;
+&lt;dd&gt;IMC main building&lt;/dd&gt;
+&lt;dd&gt;&amp;ast; Support Desks (9:00-16:30 Weekday)&lt;/dd&gt;
+&lt;dd&gt;IMC main building, IMC east branch in East Library, IMC service desk in West Library and Central Library, IMC Kasumi branch&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;Access map&lt;/a&gt;&lt;/dd&gt;
+&lt;dt&gt;Online: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
+&lt;/dd&gt;
+&lt;dt&gt;Mail: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
+&lt;/dd&gt; &lt;/dl&gt;
+ </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1459,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1481,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1519,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1543,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1563,13 +1563,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1577,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>4</v>
@@ -1591,21 +1591,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1613,24 +1613,24 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1638,21 +1638,21 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1666,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" ph="1" x14ac:dyDescent="0.2">
@@ -1674,13 +1674,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1688,21 +1688,21 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52.8" ph="1" x14ac:dyDescent="0.2">
@@ -1710,13 +1710,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
@@ -1724,18 +1724,18 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>92</v>
@@ -1746,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>4</v>
@@ -1760,13 +1760,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -1774,13 +1774,13 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>4</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1835,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -1843,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1857,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1885,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -1899,7 +1899,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -1919,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1960,12 +1960,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2034,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -2095,7 +2095,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -2137,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2198,7 +2198,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -2326,7 +2326,7 @@
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
         <v>126</v>
@@ -2337,13 +2337,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
         <v>194</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2357,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2365,13 +2365,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
@@ -2462,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -2556,13 +2556,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2576,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2584,13 +2584,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2612,7 +2612,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -2626,7 +2626,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -2687,7 +2687,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2734,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -2782,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -2804,7 +2804,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -2818,13 +2818,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2832,13 +2832,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -2846,13 +2846,13 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -2860,21 +2860,21 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
         <v>147</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2929,7 +2929,7 @@
         <v>104</v>
       </c>
       <c r="D43" t="s" ph="1">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -2990,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2998,12 +2998,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -3030,7 +3030,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -3147,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3180,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3207,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>

--- a/win10+lan_en.xlsx
+++ b/win10+lan_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_04\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8DD3BA-153B-4D94-AF36-84A259CFB9A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECBD28F-83AE-4F11-9322-99893A159A66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18216" windowHeight="11616" tabRatio="671" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1010,25 +1010,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
+    <t>"If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
 &lt;dl&gt;&lt;dt&gt;At IMC: &lt;/dt&gt;
 &lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&amp;ast; Startup workshop (Apr.5-7, for detail, see below URL)&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
-&lt;dd&gt;&amp;ast; Special QA Support (Apr.5-7 9:00-17:00)&lt;/dd&gt;
-&lt;dd&gt;IMC main building&lt;/dd&gt;
-&lt;dd&gt;&amp;ast; Support Desks (9:00-16:30 Weekday)&lt;/dd&gt;
-&lt;dd&gt;IMC main building, IMC east branch in East Library, IMC service desk in West Library and Central Library, IMC Kasumi branch&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;Access map&lt;/a&gt;&lt;/dd&gt;
+&lt;dd&gt;&amp;ast; Startup workshop (for detail, see below URL)&lt;/dd&gt;
+&lt;dd&gt;&lt;a href=""https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc""&gt;https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc&lt;/a&gt;&lt;/dd&gt;
 &lt;dt&gt;Online: &lt;/dt&gt;
 &lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
+&lt;dd&gt;&lt;a href=""https://www.media.hiroshima-u.ac.jp/helpdesk""&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
 &lt;/dd&gt;
 &lt;dt&gt;Mail: &lt;/dt&gt;
 &lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
+&lt;dd&gt;&lt;a href=""mailto:st-pc@ml.hiroshima-u.ac.jp""&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
 &lt;/dd&gt; &lt;/dl&gt;
- </t>
+ "</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3148,7 +3143,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3202,7 +3197,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="264" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="198" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
